--- a/input/statics.xlsx
+++ b/input/statics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>训练数据类型</t>
   </si>
@@ -42,6 +42,12 @@
   <si>
     <t>原始数据 删除时间特征 分段nan数量特征</t>
   </si>
+  <si>
+    <t>原始数据 删除时间特征 根据nan数量特征 分层抽样 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 删除时间特征 根据nan数量特征 分层抽样 0.3</t>
+  </si>
 </sst>
 </file>
 
@@ -50,8 +56,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,6 +75,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -78,15 +122,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,61 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,51 +218,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -234,55 +240,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,121 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +431,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,22 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,6 +484,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,32 +523,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,145 +536,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="57.3" customWidth="1"/>
     <col min="2" max="2" width="10.3"/>
@@ -1068,19 +1074,35 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>0.0288999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>0.045</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>0.0314673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.027294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0287993</v>
       </c>
     </row>
   </sheetData>

--- a/input/statics.xlsx
+++ b/input/statics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13260"/>
+    <workbookView windowWidth="19095" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>训练数据类型</t>
   </si>
@@ -31,22 +31,52 @@
     <t>原始数据 删除时间特征</t>
   </si>
   <si>
-    <t>原始数据 删除时间特征 Y &gt;2.4 and Y &lt; 3.2</t>
-  </si>
-  <si>
-    <t>原始数据 删除时间特征 计算nan数量特征</t>
-  </si>
-  <si>
-    <t>原始数据 删除时间特征 分段nan数量特征 &lt; 4</t>
-  </si>
-  <si>
-    <t>原始数据 删除时间特征 分段nan数量特征</t>
-  </si>
-  <si>
-    <t>原始数据 删除时间特征 根据nan数量特征 分层抽样 0.25</t>
-  </si>
-  <si>
-    <t>原始数据 删除时间特征 根据nan数量特征 分层抽样 0.3</t>
+    <t>原始 所有 不统计 lightgbm 0.25</t>
+  </si>
+  <si>
+    <t>原始 所有 不统计 gbr 0.25</t>
+  </si>
+  <si>
+    <t>原始 所有 不统计 pca lightgbm 0.25</t>
+  </si>
+  <si>
+    <t>原始 所有 不统计 pca gbr 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature lightgbm 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature gbr 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature pca lightgbm 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature pca gbr 0.25</t>
+  </si>
+  <si>
+    <t>原始 所有 不rank lightgbm 分层抽样 0.2</t>
+  </si>
+  <si>
+    <t>原始 所有 不rank gbr 分层抽样 0.2</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature lightgbm 分层抽样 0.2 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature gbr 分层抽样 0.2 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature compute_angle lightgbm 分层抽样 0.2 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_feature compute_angle gbr 分层抽样 0.2 0.25</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_by_max lightgbm 分层抽样 0.2</t>
+  </si>
+  <si>
+    <t>原始数据 所有 rank_by_max gbr 分层抽样 0.2</t>
   </si>
 </sst>
 </file>
@@ -54,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,6 +108,134 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,134 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -240,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,15 +475,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,157 +552,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +722,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,100 +1042,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="57.3" customWidth="1"/>
-    <col min="2" max="2" width="10.3"/>
+    <col min="2" max="3" width="12.5"/>
+    <col min="4" max="4" width="10.3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>0.0317</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.04529</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>0.0312</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.04371</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="4:4">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.0238032</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0.0284553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0.0306734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0.0288999</v>
-      </c>
-      <c r="C6">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0.0294346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0.0314673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9" s="4">
+        <v>0.0279223</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.027294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="B10">
+        <v>0.028537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.0287993</v>
+      <c r="B11">
+        <v>0.030438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.0336719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.0347929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.0289408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.0280368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.0266735</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.0284263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.0285981</v>
+      </c>
+      <c r="C18">
+        <v>0.0307822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.0270049</v>
+      </c>
+      <c r="C19">
+        <v>0.0284263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.0281251</v>
+      </c>
+      <c r="C20">
+        <v>0.0311701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.0292983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.0300545</v>
       </c>
     </row>
   </sheetData>

--- a/input/statics.xlsx
+++ b/input/statics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7845"/>
+    <workbookView windowWidth="28695" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,7 +114,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,124 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,175 +282,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,6 +508,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,50 +555,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -566,139 +566,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,10 +721,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1108,21 +1108,24 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0.0294346</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.0279223</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
+        <v>0.05132</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -1133,7 +1136,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1141,7 +1144,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1149,18 +1152,15 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0.0347929</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -1179,15 +1179,15 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.0266735</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.0284263</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
